--- a/Interview prep/Leetcode problem map.xlsx
+++ b/Interview prep/Leetcode problem map.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/fe0984427dbe7b58/Documents/my docs/Study notes/Interview prep/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="11" documentId="8_{656C5D0E-02F8-4FFE-9804-100AF41184B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FE574D19-C4C4-45C5-A0CA-7C86C61BFA9E}"/>
+  <xr:revisionPtr revIDLastSave="29" documentId="8_{656C5D0E-02F8-4FFE-9804-100AF41184B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{67C41EF2-A5FA-4946-BE7B-9DFF3D38F2B9}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{9885792B-A673-488C-B786-FA36072A7016}"/>
+    <workbookView minimized="1" xWindow="1812" yWindow="1812" windowWidth="17280" windowHeight="8880" xr2:uid="{9885792B-A673-488C-B786-FA36072A7016}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="19">
   <si>
     <t>Category</t>
   </si>
@@ -86,6 +86,28 @@
   </si>
   <si>
     <t>Convert int to string. Check if the first (str[0]) and last values (str[-1]) are the same. If no, then return False. If yes, then recursively call function with str[1:-1] until either length of str is &lt;= 1 and return True.</t>
+  </si>
+  <si>
+    <t>longest-common-prefix</t>
+  </si>
+  <si>
+    <t>String</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Pick first string and call it lcp i.e. longest commpn pref. Then loop through the subsequent str. In each loop remove trailing characters from the existing lcp until str.find(lcp) == 0. If at anytime lcp == "", return the lcp. Formula </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>LCP(LCP(LCP(S1, S2), S3), S4)</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -490,13 +512,13 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C4" sqref="C4"/>
+      <selection pane="bottomLeft" activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.33203125" customWidth="1"/>
     <col min="3" max="3" width="13.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -533,15 +555,26 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
+    <row r="4" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="4" t="s">
         <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
@@ -551,9 +584,11 @@
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1" display="Two Sum " xr:uid="{91373824-F15A-4232-9525-F7A86E20295C}"/>
     <hyperlink ref="B3" r:id="rId2" xr:uid="{9235356B-F840-48EB-879D-01FE531DD8BB}"/>
+    <hyperlink ref="B4" r:id="rId3" xr:uid="{FEAD035E-2923-485B-B503-E9681E5AF73E}"/>
+    <hyperlink ref="B5" r:id="rId4" xr:uid="{0D6F1B5C-6F4D-449A-9059-0CFED1D26FEB}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId3"/>
+  <pageSetup orientation="portrait" r:id="rId5"/>
 </worksheet>
 </file>
 

--- a/Interview prep/Leetcode problem map.xlsx
+++ b/Interview prep/Leetcode problem map.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/fe0984427dbe7b58/Documents/my docs/Study notes/Interview prep/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="29" documentId="8_{656C5D0E-02F8-4FFE-9804-100AF41184B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{67C41EF2-A5FA-4946-BE7B-9DFF3D38F2B9}"/>
+  <xr:revisionPtr revIDLastSave="99" documentId="8_{656C5D0E-02F8-4FFE-9804-100AF41184B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9C7FEBC1-5DEA-4E07-B194-89BB6C61D5E5}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="1812" yWindow="1812" windowWidth="17280" windowHeight="8880" xr2:uid="{9885792B-A673-488C-B786-FA36072A7016}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{9885792B-A673-488C-B786-FA36072A7016}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Array" sheetId="2" r:id="rId2"/>
+    <sheet name="problems" sheetId="1" r:id="rId1"/>
+    <sheet name="topic practice" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="29">
   <si>
     <t>Category</t>
   </si>
@@ -45,23 +45,6 @@
   </si>
   <si>
     <t>Solution notes</t>
-  </si>
-  <si>
-    <t>Array</t>
-  </si>
-  <si>
-    <t>Creating new</t>
-  </si>
-  <si>
-    <t>from array import *
-arr = array(typecode, list)
-e.g. arr = array('i', [1,2,3,4,5,6])</t>
-  </si>
-  <si>
-    <t>insert</t>
-  </si>
-  <si>
-    <t>arr.insert()</t>
   </si>
   <si>
     <t>Dictionary</t>
@@ -108,6 +91,52 @@
       </rPr>
       <t>LCP(LCP(LCP(S1, S2), S3), S4)</t>
     </r>
+  </si>
+  <si>
+    <t>Arrays and Strings</t>
+  </si>
+  <si>
+    <t>Linked Lists</t>
+  </si>
+  <si>
+    <t>Stacks and Queues</t>
+  </si>
+  <si>
+    <t>Trees and Graphs</t>
+  </si>
+  <si>
+    <t>Bit Manipulation</t>
+  </si>
+  <si>
+    <t>Object-Oriented Design</t>
+  </si>
+  <si>
+    <t>Recursion and Dynamic Programming</t>
+  </si>
+  <si>
+    <t>Sorting and Searching</t>
+  </si>
+  <si>
+    <t>Testing</t>
+  </si>
+  <si>
+    <t>Databases</t>
+  </si>
+  <si>
+    <t>System Design and Scalability</t>
+  </si>
+  <si>
+    <t>9/4/2022
+leetcode - easy</t>
+  </si>
+  <si>
+    <t>List</t>
+  </si>
+  <si>
+    <t>best-time-to-buy-and-sell-stock</t>
+  </si>
+  <si>
+    <t>init min_buy_price = prices[0], maxProfit = 0. Now loop through prices[1:]; if current price &lt; min_buy_price then set min_buy_price = price; else if diff bw price &amp; min_buy_price &gt; maxProfit, then maxProfit = diff bw price &amp; min_buy_price</t>
   </si>
 </sst>
 </file>
@@ -167,10 +196,83 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="8">
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top/>
       <bottom/>
       <diagonal/>
@@ -180,19 +282,42 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -512,7 +637,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C9" sqref="C9"/>
+      <selection pane="bottomLeft" activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -533,52 +658,60 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="4" t="s">
+    <row r="2" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B4" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="4" t="s">
-        <v>10</v>
+      <c r="B5" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B6" s="7"/>
+    <row r="6" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>28</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
@@ -586,51 +719,79 @@
     <hyperlink ref="B3" r:id="rId2" xr:uid="{9235356B-F840-48EB-879D-01FE531DD8BB}"/>
     <hyperlink ref="B4" r:id="rId3" xr:uid="{FEAD035E-2923-485B-B503-E9681E5AF73E}"/>
     <hyperlink ref="B5" r:id="rId4" xr:uid="{0D6F1B5C-6F4D-449A-9059-0CFED1D26FEB}"/>
+    <hyperlink ref="B6" r:id="rId5" xr:uid="{4C4346BC-654F-42EB-B322-FC894E2C4669}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId5"/>
+  <pageSetup orientation="portrait" r:id="rId6"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{595D8988-FB8F-4713-B586-51EC1AD1EBED}">
-  <dimension ref="A1:B3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B0F54E0-893D-4853-9240-5CCD6D6B5F32}">
+  <dimension ref="A1:L2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight" activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C4" sqref="C4"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="30.88671875" customWidth="1"/>
+    <col min="1" max="2" width="18.21875" style="14" customWidth="1"/>
+    <col min="3" max="10" width="18.21875" style="10" customWidth="1"/>
+    <col min="11" max="11" width="18.21875" style="11" customWidth="1"/>
+    <col min="12" max="12" width="8.88671875" style="12"/>
+    <col min="13" max="16384" width="8.88671875" style="13"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B1" t="s">
+    <row r="1" spans="1:12" s="8" customFormat="1" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="5" t="s">
         <v>3</v>
       </c>
+      <c r="C1" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="I1" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="J1" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="K1" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="L1" s="8" t="s">
+        <v>23</v>
+      </c>
     </row>
-    <row r="2" spans="1:2" s="2" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" t="s">
-        <v>7</v>
-      </c>
+    <row r="2" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A2" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2" s="10"/>
+      <c r="J2" s="11"/>
+      <c r="K2" s="12"/>
+      <c r="L2" s="13"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>